--- a/project/storage/app/private/augu_aizsardzibas_lidzekli.xlsx
+++ b/project/storage/app/private/augu_aizsardzibas_lidzekli.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dators\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\user\repo\agriculture-farm-calculator\project\storage\app\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41EB6B7-4AFF-4A54-8D9F-8460B384482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3463F56-E40B-4B99-A5F8-7ADBBDC4A901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11D6FE8F-6DA2-40AC-ACC1-F09CE734ECBB}"/>
   </bookViews>
@@ -5970,10 +5970,10 @@
     <t>Cena</t>
   </si>
   <si>
-    <t>eur_liters</t>
-  </si>
-  <si>
-    <t>eur_kilograms</t>
+    <t>l</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
 </sst>
 </file>
@@ -6346,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921574E6-A410-4E07-8884-AC943F1010A1}">
   <dimension ref="A1:I745"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A711" workbookViewId="0">
+      <selection activeCell="F731" sqref="F731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
